--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_36.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_36.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_9</t>
+          <t>model_1_36_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9920708165180583</v>
+        <v>0.8285633161726571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8006262912834131</v>
+        <v>0.5968007411148468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7325205774045997</v>
+        <v>0.7310195868426217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9830803479656141</v>
+        <v>0.684464298079041</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03300543792766748</v>
+        <v>0.4063379654029332</v>
       </c>
       <c r="G2" t="n">
-        <v>1.333212908219332</v>
+        <v>2.696195300726894</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9567583852757133</v>
+        <v>0.9621273414834751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08173895337993732</v>
+        <v>0.9469917480711835</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5067285026602318</v>
+        <v>1.237347089114944</v>
       </c>
       <c r="K2" t="n">
-        <v>0.181673988032595</v>
+        <v>0.637446441203442</v>
       </c>
       <c r="L2" t="n">
-        <v>1.50746774284427</v>
+        <v>0.7665543028734054</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1845351717367475</v>
+        <v>0.6474855854397321</v>
       </c>
       <c r="N2" t="n">
-        <v>136.8221658908089</v>
+        <v>35.80114007710974</v>
       </c>
       <c r="O2" t="n">
-        <v>278.1573384340253</v>
+        <v>72.76572366533556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_8</t>
+          <t>model_1_36_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9921657663874172</v>
+        <v>0.8286128336851272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8005948474818052</v>
+        <v>0.5968007145337891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7333178930620985</v>
+        <v>0.7309003988901133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9838407302211981</v>
+        <v>0.6847239902932281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03261020656160026</v>
+        <v>0.4062205993595654</v>
       </c>
       <c r="G3" t="n">
-        <v>1.333423173065469</v>
+        <v>2.69619547847455</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9539064333998584</v>
+        <v>0.9625536698786836</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07806554156190409</v>
+        <v>0.9462123548602842</v>
       </c>
       <c r="J3" t="n">
-        <v>0.499406468846321</v>
+        <v>1.237095321757258</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1805829630989598</v>
+        <v>0.6373543750219068</v>
       </c>
       <c r="L3" t="n">
-        <v>1.501390951205302</v>
+        <v>0.7666217309754924</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1834269642510323</v>
+        <v>0.6473920693078702</v>
       </c>
       <c r="N3" t="n">
-        <v>136.8462599097972</v>
+        <v>35.80171783752861</v>
       </c>
       <c r="O3" t="n">
-        <v>278.1814324530136</v>
+        <v>72.76630142575443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_6</t>
+          <t>model_1_36_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9924163949590441</v>
+        <v>0.8285131453248602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8005915930259998</v>
+        <v>0.5968005930345498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7351460252801898</v>
+        <v>0.731140014088399</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9856483566040051</v>
+        <v>0.6842013176395076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03156695844121414</v>
+        <v>0.406456879976881</v>
       </c>
       <c r="G4" t="n">
-        <v>1.333444935626425</v>
+        <v>2.696196290940523</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9473673104569423</v>
+        <v>0.9616965802081026</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06933288628434163</v>
+        <v>0.9477810099665126</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4795059440195933</v>
+        <v>1.237602619419032</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1776709273944788</v>
+        <v>0.6375397085491075</v>
       </c>
       <c r="L4" t="n">
-        <v>1.485350722621178</v>
+        <v>0.7664859851232139</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1804690668951734</v>
+        <v>0.6475803216528587</v>
       </c>
       <c r="N4" t="n">
-        <v>136.9112886487581</v>
+        <v>35.8005548638768</v>
       </c>
       <c r="O4" t="n">
-        <v>278.2464611919745</v>
+        <v>72.76513845210262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_4</t>
+          <t>model_1_36_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9926312203298531</v>
+        <v>0.8286617966153775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8005823344742063</v>
+        <v>0.5968005399807319</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7370403998986268</v>
+        <v>0.7307824046345226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9873219216851098</v>
+        <v>0.6849805169183065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03067274210006461</v>
+        <v>0.4061045477828903</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3335068476049</v>
+        <v>2.696196645711647</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9405912422889446</v>
+        <v>0.962975728489231</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06124788206175506</v>
+        <v>0.9454424622756069</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4595128462604163</v>
+        <v>1.236856660098643</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1751363528798765</v>
+        <v>0.6372633268774301</v>
       </c>
       <c r="L5" t="n">
-        <v>1.471601898889404</v>
+        <v>0.7666884039017907</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1778945753656112</v>
+        <v>0.6472995872461328</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9687617965283</v>
+        <v>35.80228929135039</v>
       </c>
       <c r="O5" t="n">
-        <v>278.3039343397447</v>
+        <v>72.76687287957621</v>
       </c>
     </row>
     <row r="6">
@@ -708,291 +708,291 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9925570303938677</v>
+        <v>0.8284624787509541</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8005768482083055</v>
+        <v>0.5968002677009487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7361913564528291</v>
+        <v>0.731261744479294</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9866264882274114</v>
+        <v>0.683935167108231</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03098155968924011</v>
+        <v>0.4065769695172016</v>
       </c>
       <c r="G6" t="n">
-        <v>1.333543534290241</v>
+        <v>2.696198466447811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9436282214641956</v>
+        <v>0.9612611576582049</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06460752579805253</v>
+        <v>0.9485797860014571</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4678351159541413</v>
+        <v>1.237852934245767</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1760157938630511</v>
+        <v>0.6376338836018688</v>
       </c>
       <c r="L6" t="n">
-        <v>1.476350054792469</v>
+        <v>0.7664169923417248</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1787878666651524</v>
+        <v>0.6476759798685605</v>
       </c>
       <c r="N6" t="n">
-        <v>136.9487262004478</v>
+        <v>35.7999640420247</v>
       </c>
       <c r="O6" t="n">
-        <v>278.2838987436642</v>
+        <v>72.76454763025052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_7</t>
+          <t>model_1_36_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9922988463611554</v>
+        <v>0.8287100155884984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8005755253003018</v>
+        <v>0.5968001572342696</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7342832230648815</v>
+        <v>0.7306656837066782</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9847741147452508</v>
+        <v>0.6852333018052987</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03205625761810117</v>
+        <v>0.4059902595279246</v>
       </c>
       <c r="G7" t="n">
-        <v>1.333552380582153</v>
+        <v>2.696199205139003</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9504535039529531</v>
+        <v>0.9633932324802625</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07355635461514916</v>
+        <v>0.9446837994664185</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4895673155936021</v>
+        <v>1.236619362324124</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1790426139724875</v>
+        <v>0.6371736494299843</v>
       </c>
       <c r="L7" t="n">
-        <v>1.492873832886055</v>
+        <v>0.7667540637800829</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1818623561656023</v>
+        <v>0.6472084974685344</v>
       </c>
       <c r="N7" t="n">
-        <v>136.8805257383576</v>
+        <v>35.80285222195747</v>
       </c>
       <c r="O7" t="n">
-        <v>278.215698281574</v>
+        <v>72.76743581018329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_3</t>
+          <t>model_1_36_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9927168164423493</v>
+        <v>0.8284112271327302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8005658276965091</v>
+        <v>0.5967997639775566</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7379604505677517</v>
+        <v>0.7313845763419877</v>
       </c>
       <c r="E8" t="n">
-        <v>0.988076518911028</v>
+        <v>0.6836660233368163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03031644599665413</v>
+        <v>0.4066984457252557</v>
       </c>
       <c r="G8" t="n">
-        <v>1.333617228503368</v>
+        <v>2.696201834848453</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9373002743930877</v>
+        <v>0.9608217952075504</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05760241776115345</v>
+        <v>0.9493875454056157</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4502546250249306</v>
+        <v>1.23810687772859</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1741161853379924</v>
+        <v>0.6377291319402428</v>
       </c>
       <c r="L8" t="n">
-        <v>1.466123747689643</v>
+        <v>0.7663472029041433</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1768583412047359</v>
+        <v>0.6477727282730505</v>
       </c>
       <c r="N8" t="n">
-        <v>136.9921298830951</v>
+        <v>35.79936657550017</v>
       </c>
       <c r="O8" t="n">
-        <v>278.3273024263115</v>
+        <v>72.76395016372599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_2</t>
+          <t>model_1_36_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9927954901607703</v>
+        <v>0.828359370288125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.800521358785057</v>
+        <v>0.5967990926025128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7389706985485527</v>
+        <v>0.7315084442893085</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9888091308008067</v>
+        <v>0.6833934703163191</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02998896454338777</v>
+        <v>0.4068213564364213</v>
       </c>
       <c r="G9" t="n">
-        <v>1.333914592319009</v>
+        <v>2.696206324336463</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9336866759433063</v>
+        <v>0.9603787267422601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05406316476809502</v>
+        <v>0.9502055367129428</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4410989097924439</v>
+        <v>1.238358004145591</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1731732212075175</v>
+        <v>0.6378254905821978</v>
       </c>
       <c r="L9" t="n">
-        <v>1.461088629710702</v>
+        <v>0.7662765893285106</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1759005263318242</v>
+        <v>0.6478706044672931</v>
       </c>
       <c r="N9" t="n">
-        <v>137.0138516270932</v>
+        <v>35.79876223514226</v>
       </c>
       <c r="O9" t="n">
-        <v>278.3490241703096</v>
+        <v>72.76334582336808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_1</t>
+          <t>model_1_36_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9928293935787362</v>
+        <v>0.8283069954921184</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8004720418227177</v>
+        <v>0.5967982186534267</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7397967788884481</v>
+        <v>0.7316335725691431</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9893563048101315</v>
+        <v>0.683117993242677</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02984784066099042</v>
+        <v>0.4069454947921839</v>
       </c>
       <c r="G10" t="n">
-        <v>1.334244375073256</v>
+        <v>2.696212168438026</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9307318344663905</v>
+        <v>0.9599311501406463</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05141976342934278</v>
+        <v>0.9510323037441655</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4346188092585498</v>
+        <v>1.238608836144098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1727652762015285</v>
+        <v>0.6379227968901753</v>
       </c>
       <c r="L10" t="n">
-        <v>1.458918810960881</v>
+        <v>0.7662052704573528</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1754861565997863</v>
+        <v>0.6479694432523505</v>
       </c>
       <c r="N10" t="n">
-        <v>137.023285562851</v>
+        <v>35.79815204387415</v>
       </c>
       <c r="O10" t="n">
-        <v>278.3584581060674</v>
+        <v>72.76273563209996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_0</t>
+          <t>model_1_36_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9928874617205824</v>
+        <v>0.8282540507217082</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8004494563408384</v>
+        <v>0.5967971843409446</v>
       </c>
       <c r="D11" t="n">
-        <v>0.740884708873322</v>
+        <v>0.7317598282112729</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9900184505192338</v>
+        <v>0.6828393709198399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02960613047032023</v>
+        <v>0.40707098409708</v>
       </c>
       <c r="G11" t="n">
-        <v>1.334395404294579</v>
+        <v>2.696219084890356</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9268403719923014</v>
+        <v>0.9594795410294703</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04822093303158748</v>
+        <v>0.951868510357074</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4258207526783929</v>
+        <v>1.238863422315259</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1720643207359394</v>
+        <v>0.6380211470610359</v>
       </c>
       <c r="L11" t="n">
-        <v>1.455202449882727</v>
+        <v>0.7661331754508367</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1747741617863126</v>
+        <v>0.6480693423400881</v>
       </c>
       <c r="N11" t="n">
-        <v>137.0395476572255</v>
+        <v>35.79753540129187</v>
       </c>
       <c r="O11" t="n">
-        <v>278.3747202004419</v>
+        <v>72.76211898951769</v>
       </c>
     </row>
   </sheetData>
